--- a/model_outputs/analysis_power_contingency/excel_gen_response.xlsx
+++ b/model_outputs/analysis_power_contingency/excel_gen_response.xlsx
@@ -39,16 +39,16 @@
     <t>Average error</t>
   </si>
   <si>
-    <t>Post-contingency</t>
+    <t>maximum</t>
   </si>
   <si>
-    <t>Post-response</t>
+    <t>Longest response time</t>
   </si>
   <si>
-    <t>Longest response</t>
+    <t>Post-contingency loading</t>
   </si>
   <si>
-    <t>maximum</t>
+    <t>Post-response loading</t>
   </si>
 </sst>
 </file>
@@ -637,7 +637,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Longest response</c:v>
+                  <c:v>Longest response time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3704,7 +3704,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Post-contingency</c:v>
+                  <c:v>Post-contingency loading</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6761,7 +6761,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Post-response</c:v>
+                  <c:v>Post-response loading</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12925,7 +12925,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Power demand</a:t>
+                  <a:t>Power system loading</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -12934,7 +12934,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.44133538596137023"/>
+              <c:x val="0.40928410391008818"/>
               <c:y val="0.81220727617381161"/>
             </c:manualLayout>
           </c:layout>
@@ -14207,7 +14207,7 @@
   <dimension ref="A1:J502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14220,13 +14220,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -14244,7 +14244,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
